--- a/Alibaba/data/writeback.xlsx
+++ b/Alibaba/data/writeback.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="3">
   <si>
     <t>grape juice</t>
   </si>
@@ -65,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -102,6 +102,561 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Alibaba/data/writeback.xlsx
+++ b/Alibaba/data/writeback.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="3">
   <si>
     <t>grape juice</t>
   </si>
@@ -65,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,51 @@
         <v>2</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Alibaba/data/writeback.xlsx
+++ b/Alibaba/data/writeback.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="3">
   <si>
     <t>grape juice</t>
   </si>
@@ -65,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -717,6 +717,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Alibaba/data/writeback.xlsx
+++ b/Alibaba/data/writeback.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="3">
   <si>
     <t>grape juice</t>
   </si>
@@ -65,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -732,6 +732,81 @@
         <v>2</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Alibaba/data/writeback.xlsx
+++ b/Alibaba/data/writeback.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="3">
   <si>
     <t>grape juice</t>
   </si>
@@ -65,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -807,6 +807,36 @@
         <v>2</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
